--- a/data/2025_crossing_seedlots.xlsx
+++ b/data/2025_crossing_seedlots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC7188-F83C-4CFA-83E5-5DC5D8875D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C1D8A-55A6-4C99-8129-CEE77C6C5DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="345" windowWidth="28770" windowHeight="19815" tabRatio="667" firstSheet="4" activeTab="7" xr2:uid="{B5288E84-8FBB-4A73-902C-7E144707656D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="667" xr2:uid="{B5288E84-8FBB-4A73-902C-7E144707656D}"/>
   </bookViews>
   <sheets>
     <sheet name="seedlots" sheetId="3" r:id="rId1"/>
@@ -26,15 +26,17 @@
     <sheet name="trial_template" sheetId="10" r:id="rId11"/>
     <sheet name="seedlots_template" sheetId="18" r:id="rId12"/>
     <sheet name="cross_exp_template" sheetId="15" r:id="rId13"/>
-    <sheet name="cross_data_template" sheetId="17" r:id="rId14"/>
-    <sheet name="cross_seedlot_template" sheetId="9" r:id="rId15"/>
-    <sheet name="crossing_accessions" sheetId="1" r:id="rId16"/>
-    <sheet name="Noble" sheetId="4" r:id="rId17"/>
-    <sheet name="UWON" sheetId="5" r:id="rId18"/>
-    <sheet name="NCSU-AT" sheetId="6" r:id="rId19"/>
-    <sheet name="GRIN" sheetId="7" r:id="rId20"/>
-    <sheet name="SOAP" sheetId="8" r:id="rId21"/>
-    <sheet name="WOF_GH" sheetId="12" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId15"/>
+    <sheet name="cross_data_template" sheetId="17" r:id="rId16"/>
+    <sheet name="cross_seedlot_template" sheetId="9" r:id="rId17"/>
+    <sheet name="crossing_accessions" sheetId="1" r:id="rId18"/>
+    <sheet name="Noble" sheetId="4" r:id="rId19"/>
+    <sheet name="UWON" sheetId="5" r:id="rId20"/>
+    <sheet name="NCSU-AT" sheetId="6" r:id="rId21"/>
+    <sheet name="GRIN" sheetId="7" r:id="rId22"/>
+    <sheet name="SOAP" sheetId="8" r:id="rId23"/>
+    <sheet name="WOF_GH" sheetId="12" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">F2_trial_plants!$A$1:$B$23</definedName>
@@ -12303,7 +12305,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -12432,15 +12434,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -12785,7 +12788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E272839-291D-4D47-93DC-A91848BA0DF4}">
   <dimension ref="A1:I879"/>
   <sheetViews>
-    <sheetView topLeftCell="A817" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
@@ -12796,7 +12799,7 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" customWidth="1"/>
+    <col min="6" max="6" width="112" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="44.85546875" bestFit="1" customWidth="1"/>
@@ -34180,11 +34183,11 @@
       <c r="AJ1" s="52"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AD2" s="54" t="s">
+      <c r="AD2" s="56" t="s">
         <v>2912</v>
       </c>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
       <c r="AG2" s="52"/>
       <c r="AH2" s="52"/>
       <c r="AI2" s="52"/>
@@ -34370,11 +34373,11 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AD16" s="54" t="s">
+      <c r="AD16" s="56" t="s">
         <v>2929</v>
       </c>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
     </row>
     <row r="17" spans="30:32" x14ac:dyDescent="0.25">
       <c r="AD17" s="52" t="s">
@@ -34836,6 +34839,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE578D-C83D-4926-8536-F4B7D331B505}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3725095B-C3F3-4782-9A57-B2A8FEBD6F8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352C24BA-884F-4AEE-975E-E99D054F79DF}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -34987,7 +35014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73EB475-1078-45C7-8CAA-E0B652E305B6}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -35085,7 +35112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574762F7-9AE4-42A3-8937-BF8D6C0EBD59}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -35506,12 +35533,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F294BB-A347-49A6-B370-EC77993DB0BD}">
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R44"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38217,2122 +38244,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:Q43">
     <sortCondition ref="K2:K43"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0752D-9A62-4D0A-9DAC-3178985422F0}">
-  <dimension ref="A1:K35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2">
-        <v>240</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xlfn.CONCAT("UWON_2024-Entry_",TEXT(C2,"000"))</f>
-        <v>UWON_2024-Entry_001</v>
-      </c>
-      <c r="K2" t="str">
-        <f>_xlfn.CONCAT(H2,"-",J2)</f>
-        <v>GERARD224-UWON_2024-Entry_001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="16">
-        <v>24</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3">
-        <v>240</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J35" si="0">_xlfn.CONCAT("UWON_2024-Entry_",TEXT(C3,"000"))</f>
-        <v>UWON_2024-Entry_002</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K35" si="1">_xlfn.CONCAT(H3,"-",J3)</f>
-        <v>Juggernaut-UWON_2024-Entry_002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="16">
-        <v>24</v>
-      </c>
-      <c r="C4" s="17">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4">
-        <v>240</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_003</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>LA99016-UWON_2024-Entry_003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="16">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17">
-        <v>4</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5">
-        <v>240</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_004</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>Savage-UWON_2024-Entry_004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="16">
-        <v>24</v>
-      </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6">
-        <v>240</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_005</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA11019-8-UWON_2024-Entry_005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="16">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7">
-        <v>240</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_006</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>NC18-5877N -UWON_2024-Entry_006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="16">
-        <v>24</v>
-      </c>
-      <c r="C8" s="17">
-        <v>7</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8">
-        <v>240</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_007</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4402 -UWON_2024-Entry_007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="16">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17">
-        <v>8</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9">
-        <v>240</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_008</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4700 -UWON_2024-Entry_008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="16">
-        <v>24</v>
-      </c>
-      <c r="C10" s="17">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10">
-        <v>240</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_009</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4452 -UWON_2024-Entry_009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="16">
-        <v>24</v>
-      </c>
-      <c r="C11" s="17">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11">
-        <v>240</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_010</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4526 -UWON_2024-Entry_010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="16">
-        <v>24</v>
-      </c>
-      <c r="C12" s="17">
-        <v>11</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12">
-        <v>240</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_011</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4551 -UWON_2024-Entry_011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="16">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17">
-        <v>12</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13">
-        <v>240</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_012</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17069SBSS-2-1-UWON_2024-Entry_012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="16">
-        <v>24</v>
-      </c>
-      <c r="C14" s="17">
-        <v>13</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14">
-        <v>240</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_013</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17075SBSS-29-1-UWON_2024-Entry_013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="16">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17">
-        <v>14</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15">
-        <v>240</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_014</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17089SBS-45-1-1-UWON_2024-Entry_014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="16">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16">
-        <v>240</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_015</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17129SBSS-8-1-UWON_2024-Entry_015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="16">
-        <v>24</v>
-      </c>
-      <c r="C17" s="17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17">
-        <v>240</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_016</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17153SBSS-46-1-UWON_2024-Entry_016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="16">
-        <v>24</v>
-      </c>
-      <c r="C18" s="17">
-        <v>17</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18">
-        <v>240</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_017</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>LA17153SBSS-55-1-UWON_2024-Entry_017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="16">
-        <v>24</v>
-      </c>
-      <c r="C19" s="17">
-        <v>18</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19">
-        <v>240</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_018</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>LA15015SB-S50-UWON_2024-Entry_018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="16">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17">
-        <v>19</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="I20">
-        <v>240</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_019</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>SCLA17080SBS-4-2-UWON_2024-Entry_019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="16">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17">
-        <v>20</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21">
-        <v>240</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_020</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>SCLA17031SBSS-4-1-UWON_2024-Entry_020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="16">
-        <v>24</v>
-      </c>
-      <c r="C22" s="17">
-        <v>21</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22">
-        <v>240</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_021</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>SCLA17018SBSS-45-1-UWON_2024-Entry_021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="16">
-        <v>24</v>
-      </c>
-      <c r="C23" s="17">
-        <v>22</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I23">
-        <v>240</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_022</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17069-53-UWON_2024-Entry_022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="16">
-        <v>24</v>
-      </c>
-      <c r="C24" s="17">
-        <v>23</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24">
-        <v>240</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_023</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17069-65-UWON_2024-Entry_023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="16">
-        <v>24</v>
-      </c>
-      <c r="C25" s="17">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25">
-        <v>240</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_024</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17069-54-UWON_2024-Entry_024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="16">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17">
-        <v>25</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26">
-        <v>240</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_025</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17069-52-UWON_2024-Entry_025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="16">
-        <v>24</v>
-      </c>
-      <c r="C27" s="17">
-        <v>26</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27">
-        <v>240</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_026</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17088-61-UWON_2024-Entry_026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="16">
-        <v>24</v>
-      </c>
-      <c r="C28" s="17">
-        <v>27</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I28">
-        <v>240</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_027</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA17088-77-UWON_2024-Entry_027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="16">
-        <v>24</v>
-      </c>
-      <c r="C29" s="17">
-        <v>28</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29">
-        <v>240</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_028</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>FLLA16083-25-UWON_2024-Entry_028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="16">
-        <v>24</v>
-      </c>
-      <c r="C30" s="17">
-        <v>29</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30">
-        <v>240</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_029</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>NC19-3542-UWON_2024-Entry_029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="16">
-        <v>24</v>
-      </c>
-      <c r="C31" s="17">
-        <v>30</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="I31">
-        <v>240</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_030</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v>TX19CAS0057-UWON_2024-Entry_030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="16">
-        <v>24</v>
-      </c>
-      <c r="C32" s="17">
-        <v>31</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32">
-        <v>240</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_031</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>TX19CAS0058-UWON_2024-Entry_031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="16">
-        <v>24</v>
-      </c>
-      <c r="C33" s="17">
-        <v>32</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33">
-        <v>240</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_032</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v>TX18OCS9100-UWON_2024-Entry_032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="16">
-        <v>24</v>
-      </c>
-      <c r="C34" s="17">
-        <v>33</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34">
-        <v>240</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_033</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v>TX18OCS9104-UWON_2024-Entry_033</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="28">
-        <v>24</v>
-      </c>
-      <c r="C35" s="29">
-        <v>34</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="I35">
-        <v>240</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>UWON_2024-Entry_034</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v>TX18OCS9125-UWON_2024-Entry_034</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E68CAA-498C-437E-8F60-4CE02F319F0E}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="1">
-        <v>120</v>
-      </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT("NCSU_AT_2024-Entry_",A2)</f>
-        <v>NCSU_AT_2024-Entry_1</v>
-      </c>
-      <c r="G2" t="str">
-        <f>_xlfn.CONCAT(D2,"-",F2)</f>
-        <v>Horizon 578-NCSU_AT_2024-Entry_1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="1">
-        <v>120</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F31" si="0">_xlfn.CONCAT("NCSU_AT_2024-Entry_",A3)</f>
-        <v>NCSU_AT_2024-Entry_2</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G31" si="1">_xlfn.CONCAT(D3,"-",F3)</f>
-        <v>Horizon 578-NCSU_AT_2024-Entry_2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" s="1">
-        <v>120</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_3</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>GERARD224-NCSU_AT_2024-Entry_3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="1">
-        <v>120</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_4</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>GERARD224-NCSU_AT_2024-Entry_4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>120</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_5</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>Gerard 227-NCSU_AT_2024-Entry_5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>120</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_6</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>Gerard 227-NCSU_AT_2024-Entry_6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>120</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>HORIZON201-NCSU_AT_2024-Entry_7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>120</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_8</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>HORIZON201-NCSU_AT_2024-Entry_8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="1">
-        <v>120</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_9</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>NC09-4503N-NCSU_AT_2024-Entry_9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="E11" s="1">
-        <v>120</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_10</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>NC09-4503N-NCSU_AT_2024-Entry_10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="1">
-        <v>120</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_11</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>NC17-6440-NCSU_AT_2024-Entry_11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="1">
-        <v>120</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_12</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>NC18-5877N-NCSU_AT_2024-Entry_12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="1">
-        <v>120</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_13</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>NC19-3542-NCSU_AT_2024-Entry_13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="1">
-        <v>120</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_14</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4402-NCSU_AT_2024-Entry_14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>15</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>120</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_15</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4452-NCSU_AT_2024-Entry_15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>120</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_16</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4526-NCSU_AT_2024-Entry_16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="1">
-        <v>120</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_17</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4551-NCSU_AT_2024-Entry_17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="1">
-        <v>120</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_18</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4700-NCSU_AT_2024-Entry_18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="1">
-        <v>120</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_19</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4702-NCSU_AT_2024-Entry_19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="1">
-        <v>120</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_20</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>NC20-4795-NCSU_AT_2024-Entry_20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>120</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_21</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6429-NCSU_AT_2024-Entry_21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="1">
-        <v>120</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_22</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6475-NCSU_AT_2024-Entry_22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <v>23</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="1">
-        <v>120</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_23</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6492-NCSU_AT_2024-Entry_23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>24</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="1">
-        <v>120</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_24</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6497-NCSU_AT_2024-Entry_24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="1">
-        <v>120</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_25</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6502-NCSU_AT_2024-Entry_25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="1">
-        <v>120</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_26</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6505-NCSU_AT_2024-Entry_26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
-        <v>27</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="1">
-        <v>120</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_27</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6511-NCSU_AT_2024-Entry_27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="1">
-        <v>120</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_28</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6576-NCSU_AT_2024-Entry_28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
-        <v>29</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="1">
-        <v>120</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_29</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6609-NCSU_AT_2024-Entry_29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>30</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="1">
-        <v>120</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>NCSU_AT_2024-Entry_30</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>NC21-6610-NCSU_AT_2024-Entry_30</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41453,6 +39364,2122 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0752D-9A62-4D0A-9DAC-3178985422F0}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="10">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2">
+        <v>240</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT("UWON_2024-Entry_",TEXT(C2,"000"))</f>
+        <v>UWON_2024-Entry_001</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(H2,"-",J2)</f>
+        <v>GERARD224-UWON_2024-Entry_001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="16">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J35" si="0">_xlfn.CONCAT("UWON_2024-Entry_",TEXT(C3,"000"))</f>
+        <v>UWON_2024-Entry_002</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K35" si="1">_xlfn.CONCAT(H3,"-",J3)</f>
+        <v>Juggernaut-UWON_2024-Entry_002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="16">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4">
+        <v>240</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_003</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>LA99016-UWON_2024-Entry_003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="16">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5">
+        <v>240</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_004</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>Savage-UWON_2024-Entry_004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="16">
+        <v>24</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_005</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA11019-8-UWON_2024-Entry_005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="16">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7">
+        <v>240</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_006</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>NC18-5877N -UWON_2024-Entry_006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="16">
+        <v>24</v>
+      </c>
+      <c r="C8" s="17">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8">
+        <v>240</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_007</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4402 -UWON_2024-Entry_007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="16">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9">
+        <v>240</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_008</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4700 -UWON_2024-Entry_008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="16">
+        <v>24</v>
+      </c>
+      <c r="C10" s="17">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10">
+        <v>240</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_009</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4452 -UWON_2024-Entry_009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="16">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_010</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4526 -UWON_2024-Entry_010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="16">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_011</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4551 -UWON_2024-Entry_011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="16">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
+        <v>12</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_012</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17069SBSS-2-1-UWON_2024-Entry_012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="16">
+        <v>24</v>
+      </c>
+      <c r="C14" s="17">
+        <v>13</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14">
+        <v>240</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_013</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17075SBSS-29-1-UWON_2024-Entry_013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="16">
+        <v>24</v>
+      </c>
+      <c r="C15" s="17">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15">
+        <v>240</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_014</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17089SBS-45-1-1-UWON_2024-Entry_014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="16">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16">
+        <v>240</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_015</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17129SBSS-8-1-UWON_2024-Entry_015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="16">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17">
+        <v>240</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_016</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17153SBSS-46-1-UWON_2024-Entry_016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="16">
+        <v>24</v>
+      </c>
+      <c r="C18" s="17">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18">
+        <v>240</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_017</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>LA17153SBSS-55-1-UWON_2024-Entry_017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="16">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17">
+        <v>18</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19">
+        <v>240</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_018</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>LA15015SB-S50-UWON_2024-Entry_018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="16">
+        <v>24</v>
+      </c>
+      <c r="C20" s="17">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20">
+        <v>240</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_019</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>SCLA17080SBS-4-2-UWON_2024-Entry_019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="16">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21">
+        <v>240</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_020</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>SCLA17031SBSS-4-1-UWON_2024-Entry_020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="16">
+        <v>24</v>
+      </c>
+      <c r="C22" s="17">
+        <v>21</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22">
+        <v>240</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_021</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>SCLA17018SBSS-45-1-UWON_2024-Entry_021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="16">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17">
+        <v>22</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23">
+        <v>240</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_022</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17069-53-UWON_2024-Entry_022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="16">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17">
+        <v>23</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24">
+        <v>240</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_023</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17069-65-UWON_2024-Entry_023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="16">
+        <v>24</v>
+      </c>
+      <c r="C25" s="17">
+        <v>24</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25">
+        <v>240</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_024</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17069-54-UWON_2024-Entry_024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="16">
+        <v>24</v>
+      </c>
+      <c r="C26" s="17">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26">
+        <v>240</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_025</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17069-52-UWON_2024-Entry_025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="16">
+        <v>24</v>
+      </c>
+      <c r="C27" s="17">
+        <v>26</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27">
+        <v>240</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_026</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17088-61-UWON_2024-Entry_026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="16">
+        <v>24</v>
+      </c>
+      <c r="C28" s="17">
+        <v>27</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28">
+        <v>240</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_027</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA17088-77-UWON_2024-Entry_027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="16">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17">
+        <v>28</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29">
+        <v>240</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_028</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>FLLA16083-25-UWON_2024-Entry_028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="16">
+        <v>24</v>
+      </c>
+      <c r="C30" s="17">
+        <v>29</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30">
+        <v>240</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_029</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>NC19-3542-UWON_2024-Entry_029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="16">
+        <v>24</v>
+      </c>
+      <c r="C31" s="17">
+        <v>30</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31">
+        <v>240</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_030</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>TX19CAS0057-UWON_2024-Entry_030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="16">
+        <v>24</v>
+      </c>
+      <c r="C32" s="17">
+        <v>31</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32">
+        <v>240</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_031</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>TX19CAS0058-UWON_2024-Entry_031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="16">
+        <v>24</v>
+      </c>
+      <c r="C33" s="17">
+        <v>32</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33">
+        <v>240</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_032</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>TX18OCS9100-UWON_2024-Entry_032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="16">
+        <v>24</v>
+      </c>
+      <c r="C34" s="17">
+        <v>33</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34">
+        <v>240</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_033</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>TX18OCS9104-UWON_2024-Entry_033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="28">
+        <v>24</v>
+      </c>
+      <c r="C35" s="29">
+        <v>34</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35">
+        <v>240</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>UWON_2024-Entry_034</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>TX18OCS9125-UWON_2024-Entry_034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E68CAA-498C-437E-8F60-4CE02F319F0E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="1">
+        <v>120</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("NCSU_AT_2024-Entry_",A2)</f>
+        <v>NCSU_AT_2024-Entry_1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(D2,"-",F2)</f>
+        <v>Horizon 578-NCSU_AT_2024-Entry_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="1">
+        <v>120</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F31" si="0">_xlfn.CONCAT("NCSU_AT_2024-Entry_",A3)</f>
+        <v>NCSU_AT_2024-Entry_2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G31" si="1">_xlfn.CONCAT(D3,"-",F3)</f>
+        <v>Horizon 578-NCSU_AT_2024-Entry_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>GERARD224-NCSU_AT_2024-Entry_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_4</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>GERARD224-NCSU_AT_2024-Entry_4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>120</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>Gerard 227-NCSU_AT_2024-Entry_5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>120</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gerard 227-NCSU_AT_2024-Entry_6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>HORIZON201-NCSU_AT_2024-Entry_7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>120</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_8</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>HORIZON201-NCSU_AT_2024-Entry_8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="1">
+        <v>120</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>NC09-4503N-NCSU_AT_2024-Entry_9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="1">
+        <v>120</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>NC09-4503N-NCSU_AT_2024-Entry_10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="1">
+        <v>120</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_11</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>NC17-6440-NCSU_AT_2024-Entry_11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="1">
+        <v>120</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_12</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>NC18-5877N-NCSU_AT_2024-Entry_12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="1">
+        <v>120</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_13</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>NC19-3542-NCSU_AT_2024-Entry_13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="1">
+        <v>120</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4402-NCSU_AT_2024-Entry_14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>120</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_15</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4452-NCSU_AT_2024-Entry_15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>120</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_16</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4526-NCSU_AT_2024-Entry_16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="1">
+        <v>120</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_17</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4551-NCSU_AT_2024-Entry_17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="1">
+        <v>120</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_18</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4700-NCSU_AT_2024-Entry_18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="1">
+        <v>120</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_19</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4702-NCSU_AT_2024-Entry_19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="1">
+        <v>120</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_20</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>NC20-4795-NCSU_AT_2024-Entry_20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>120</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_21</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6429-NCSU_AT_2024-Entry_21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="1">
+        <v>120</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_22</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6475-NCSU_AT_2024-Entry_22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="1">
+        <v>120</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_23</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6492-NCSU_AT_2024-Entry_23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="1">
+        <v>120</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_24</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6497-NCSU_AT_2024-Entry_24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="1">
+        <v>120</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_25</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6502-NCSU_AT_2024-Entry_25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1">
+        <v>120</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_26</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6505-NCSU_AT_2024-Entry_26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="1">
+        <v>120</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_27</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6511-NCSU_AT_2024-Entry_27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="1">
+        <v>120</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_28</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6576-NCSU_AT_2024-Entry_28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="1">
+        <v>120</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_29</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6609-NCSU_AT_2024-Entry_29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="1">
+        <v>120</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>NCSU_AT_2024-Entry_30</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>NC21-6610-NCSU_AT_2024-Entry_30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69F1D73-C866-450C-9426-C49424CD0B42}">
   <dimension ref="A1:K221"/>
   <sheetViews>
@@ -49284,7 +49311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5BC13D-73E5-4B31-BF1C-ADB722D68B6B}">
   <dimension ref="A1:L456"/>
   <sheetViews>
@@ -68004,7 +68031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4EF9C8-CDCA-4874-82DE-945921F1FD1A}">
   <dimension ref="A1:AO97"/>
   <sheetViews>
@@ -77912,7 +77939,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78508,10 +78535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A97CBA1-DD64-4C61-8022-D35EBB0F4C92}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78520,9 +78547,10 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>2373</v>
       </c>
@@ -78536,7 +78564,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3023</v>
       </c>
@@ -78549,8 +78577,9 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3024</v>
       </c>
@@ -78564,7 +78593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3025</v>
       </c>
@@ -78578,7 +78607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3026</v>
       </c>
@@ -78592,7 +78621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3027</v>
       </c>
@@ -78606,7 +78635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3028</v>
       </c>
@@ -78620,7 +78649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3029</v>
       </c>
@@ -78634,7 +78663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3030</v>
       </c>
@@ -78648,7 +78677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3031</v>
       </c>
@@ -78662,7 +78691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3032</v>
       </c>
@@ -78676,7 +78705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3033</v>
       </c>
@@ -78690,7 +78719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3034</v>
       </c>
@@ -78704,7 +78733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3035</v>
       </c>
@@ -78718,7 +78747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3036</v>
       </c>
@@ -78732,7 +78761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3037</v>
       </c>
@@ -78877,7 +78906,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -79337,7 +79366,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80432,7 +80461,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80446,46 +80475,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>2397</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>2373</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>2398</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>2399</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>2400</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>2401</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>2402</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>2403</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>2404</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="54" t="s">
         <v>2405</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="54" t="s">
         <v>2406</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="54" t="s">
         <v>2407</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="54" t="s">
         <v>2408</v>
       </c>
     </row>
@@ -80938,22 +80967,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA66878-830D-41E0-AFCA-8DA954E7AAF5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>2397</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>3852</v>
       </c>
     </row>
@@ -81114,7 +81143,7 @@
         <v>2969</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
